--- a/biology/Zoologie/Hylodes/Hylodes.xlsx
+++ b/biology/Zoologie/Hylodes/Hylodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes est un genre d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes est un genre d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 26 espèces de ce genre sont endémiques du sud-est du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 26 espèces de ce genre sont endémiques du sud-est du Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Amphibian Species of the World                      (10 juin 2017) :
 Hylodes amnicola Pombal, Feio, &amp; Haddad, 2002
 Hylodes asper (Müller, 1924)
 Hylodes babax Heyer, 1982
@@ -599,9 +615,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Elosia[3] a été placé en synonymie avec Hylodes par Steindachner en 1865[4] et le genre Scinacodes[5] par Cochran en 1955[6] ; Enydrobius[7] est un nom de substitution superflu.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Elosia a été placé en synonymie avec Hylodes par Steindachner en 1865 et le genre Scinacodes par Cochran en 1955 ; Enydrobius est un nom de substitution superflu.
 </t>
         </is>
       </c>
@@ -630,7 +648,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fitzinger, 1826 : Neue classification der reptilien nach ihren natürlichen verwandtschaften. Nebst einer verwandtschafts-tafel und einem verzeichnisse der reptilien-sammlung des K. K. zoologischen museum's zu Wien, p. 1-67 (texte intégral).</t>
         </is>
